--- a/categories/predicted.xlsx
+++ b/categories/predicted.xlsx
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/categories/predicted.xlsx
+++ b/categories/predicted.xlsx
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">

--- a/categories/predicted.xlsx
+++ b/categories/predicted.xlsx
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
